--- a/applications/Brazil/BH_validation.xlsx
+++ b/applications/Brazil/BH_validation.xlsx
@@ -465,25 +465,25 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>3731</v>
+        <v>4495</v>
       </c>
       <c r="B3">
-        <v>4713</v>
+        <v>5783</v>
       </c>
       <c r="C3">
-        <v>5794</v>
+        <v>7167</v>
       </c>
       <c r="D3">
-        <v>7958</v>
+        <v>9939</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L3">
         <v>171</v>

--- a/applications/Brazil/BH_validation.xlsx
+++ b/applications/Brazil/BH_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>4495</v>
+        <v>3821</v>
       </c>
       <c r="B3">
-        <v>5783</v>
+        <v>4880</v>
       </c>
       <c r="C3">
-        <v>7167</v>
+        <v>5932</v>
       </c>
       <c r="D3">
-        <v>9939</v>
+        <v>8042</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J3">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="K3">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L3">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
